--- a/020_data/2022_NJ_chicks.xlsx
+++ b/020_data/2022_NJ_chicks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25792FD7-2CD5-E749-A745-BD506BFF1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418991BB-0A45-0B40-89DB-CF8E7282F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="24140" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>sex: m</t>
   </si>
   <si>
-    <t>Ave. Fledge date</t>
-  </si>
-  <si>
     <t>check again</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t># unbanded  young to 12-day banding age (u)</t>
+  </si>
+  <si>
+    <t>Fledge date</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,28 +742,28 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>1</v>
@@ -786,13 +786,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7">
         <v>44675</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>2</v>
@@ -809,13 +809,13 @@
         <v>2022</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>44693</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -837,13 +837,13 @@
         <v>2022</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>44708</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -862,13 +862,13 @@
         <v>2022</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>44708</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -887,13 +887,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7">
         <v>44676</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -912,13 +912,13 @@
         <v>2022</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>44676</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
@@ -938,13 +938,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
         <v>44676</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -964,13 +964,13 @@
         <v>2022</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
         <v>44676</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5">
         <v>4</v>
@@ -990,13 +990,13 @@
         <v>2022</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>44676</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -1015,13 +1015,13 @@
         <v>2022</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>44676</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
@@ -1041,13 +1041,13 @@
         <v>2022</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7">
         <v>44676</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>44679</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -1095,13 +1095,13 @@
         <v>2022</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>44679</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5">
         <v>5</v>
@@ -1122,13 +1122,13 @@
         <v>2022</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
         <v>44679</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5">
         <v>4</v>
@@ -1149,13 +1149,13 @@
         <v>2022</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>44705</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="15">
         <v>5</v>
@@ -1178,13 +1178,13 @@
         <v>2022</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>44675</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5">
         <v>5</v>
@@ -1205,13 +1205,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
         <v>44679</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
@@ -1230,13 +1230,13 @@
         <v>2022</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8">
         <v>44690</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1252,13 +1252,13 @@
         <v>2022</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8">
         <v>44690</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1272,13 +1272,13 @@
         <v>2022</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3">
         <v>44705</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1298,13 +1298,13 @@
         <v>2022</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3">
         <v>44692</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1324,13 +1324,13 @@
         <v>2022</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>44676</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5">
         <v>5</v>
@@ -1348,13 +1348,13 @@
         <v>2022</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7">
         <v>44676</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
@@ -1376,13 +1376,13 @@
         <v>2022</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>44705</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1404,13 +1404,13 @@
         <v>2022</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
         <v>44676</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5">
         <v>4</v>
@@ -1430,13 +1430,13 @@
         <v>2022</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7">
         <v>44676</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="5">
         <v>5</v>
@@ -1453,13 +1453,13 @@
         <v>2022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="8">
         <v>44675</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1474,13 +1474,13 @@
         <v>2022</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3">
         <v>44692</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="15">
         <v>4</v>
@@ -1498,13 +1498,13 @@
         <v>2022</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3">
         <v>44693</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1517,13 +1517,13 @@
         <v>2022</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="8">
         <v>44675</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="8">
         <v>44676</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1557,13 +1557,13 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8">
         <v>44676</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -1578,13 +1578,13 @@
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="8">
         <v>44675</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1600,13 +1600,13 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="8">
         <v>44675</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -3951,9 +3951,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4141,19 +4144,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6337D982-D9CF-4D07-953D-B708CB6DF118}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4177,9 +4176,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6337D982-D9CF-4D07-953D-B708CB6DF118}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>